--- a/Methanosaeta/AutoKEGG/data/output/VMHIDs_and_metNames.xlsx
+++ b/Methanosaeta/AutoKEGG/data/output/VMHIDs_and_metNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samiraranjbar/drive/Methanogens/Methanosaeta/AutoKEGG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samiraranjbar/drive/Methanogens/Methanosaeta/AutoKEGG/data/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDC6DA-FDCE-E34D-8691-F06E80C4AEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350B5C2A-F2B2-E94B-8763-1DC3BA7285DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="34420" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9900,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
